--- a/Frogger/Testing report.xlsx
+++ b/Frogger/Testing report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Iteratives Development Steps" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="122">
   <si>
     <t>ITERATIVE DEVELOPMENT STEPS</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Making the GameClass generate a new vehicle class in a different line</t>
   </si>
   <si>
-    <t>Defining a pattern to how to in which line the GameState class generates the vehicles</t>
-  </si>
-  <si>
     <t>Create the Log class, instantiate it in the GameState class, print an image and make it move on the screen using its tick and render methods</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>Animating the Turtle class so it looks like they are swimming</t>
   </si>
   <si>
-    <t>Implementing a random amountof turtles to be drawn on the screen, getting this number randomly</t>
-  </si>
-  <si>
     <t>Creating the Car, Bus, Truck and taxi classes in a random position on the screen</t>
   </si>
   <si>
@@ -230,9 +224,6 @@
     <t>Deleting the Log, Alligator, AlligatorBank and Turtle objects from the GameState class and create a new RiverItems object there</t>
   </si>
   <si>
-    <t>Using the RiverItems objects to add the same objects on the screen on the screen</t>
-  </si>
-  <si>
     <t>Defining five imaginary lines in the river on the background image</t>
   </si>
   <si>
@@ -242,9 +233,6 @@
     <t>Making the GameClass generate a new river item class in a different line</t>
   </si>
   <si>
-    <t>Defining a pattern to how to in which line the GameState class generates the river items</t>
-  </si>
-  <si>
     <t>Making the river items move to different direction according to its y position</t>
   </si>
   <si>
@@ -327,6 +315,72 @@
   </si>
   <si>
     <t>Test Number</t>
+  </si>
+  <si>
+    <t>The player class was not extending the Entity Class</t>
+  </si>
+  <si>
+    <t>An instance of the Game class needs to be passed to the player so the player can rely on the game width and height</t>
+  </si>
+  <si>
+    <t>Wrong declaration of if statements</t>
+  </si>
+  <si>
+    <t>Boolean variable no defined correctly through the if statements</t>
+  </si>
+  <si>
+    <t>Variables that store the position of the player have to be float</t>
+  </si>
+  <si>
+    <t>Wrong declaration of the varibale anim according to the key pressed on the keyboard</t>
+  </si>
+  <si>
+    <t>Wrong declaration of the Car constructor</t>
+  </si>
+  <si>
+    <t>The images were not cropped right from the sprite sheet</t>
+  </si>
+  <si>
+    <t>Wrong declaration of the for loops the runs through all the objects on the linked lists</t>
+  </si>
+  <si>
+    <t>Missing calling vehicles tick() method</t>
+  </si>
+  <si>
+    <t>Missing calling vehicles render method</t>
+  </si>
+  <si>
+    <t>Wrong definition of the equation that defines the five lines</t>
+  </si>
+  <si>
+    <t>Generating a random number does not work because it is possible that three or maybe more vehicles will be generated at the same positionone after the other</t>
+  </si>
+  <si>
+    <t>Randomly generating vehicles</t>
+  </si>
+  <si>
+    <t>Wrong defintion of if statements in the classes of the vehicles</t>
+  </si>
+  <si>
+    <t>The river banks positions were not defined right</t>
+  </si>
+  <si>
+    <t>The counter is not reseted inside the tick() method</t>
+  </si>
+  <si>
+    <t>Implementing a random amount of turtles to be drawn on the screen, getting this number randomly</t>
+  </si>
+  <si>
+    <t>Using the RiverItems objects to add the same objects on the screen</t>
+  </si>
+  <si>
+    <t>Randomly generating river items</t>
+  </si>
+  <si>
+    <t>Missing getters and setters to work with the entities positions on the linked lists class</t>
+  </si>
+  <si>
+    <t>Wrong declaration of the if statements that test the position of the entities</t>
   </si>
 </sst>
 </file>
@@ -444,7 +498,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -746,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -820,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1171,7 +1254,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1243,7 +1326,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1252,7 +1335,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1261,7 +1344,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1270,7 +1353,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1279,7 +1362,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1288,7 +1371,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1297,7 +1380,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1306,7 +1389,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1315,7 +1398,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1324,7 +1407,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1333,7 +1416,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1342,7 +1425,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1351,7 +1434,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1360,7 +1443,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1369,7 +1452,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1378,7 +1461,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1387,7 +1470,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1405,7 +1488,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1414,7 +1497,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1423,7 +1506,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1432,7 +1515,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1441,7 +1524,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1450,7 +1533,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1459,7 +1542,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1468,7 +1551,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1477,7 +1560,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1493,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,7 +1591,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1517,19 +1600,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1544,10 +1627,10 @@
         <v>Creating the launcher class using the main method, printing something on the command line from it</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1564,10 +1647,10 @@
         <v>Creating the Game class and its start method, instantiate and start it from the Launcher method, print something on command line from the start method</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1584,10 +1667,10 @@
         <v>Creating a method inside the Game class that starts a window using a Jframe and Canvas object</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1604,10 +1687,10 @@
         <v>Creating a method inside the Game class that starts a window using a Jframe and Canvas object</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1624,10 +1707,10 @@
         <v>Creating a Display class that will hold the methods to initiate and close the game window, instantiate it from the game class and starting the window from it</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1644,10 +1727,10 @@
         <v>Creating a Display class that will hold the methods to initiate and close the game window, instantiate it from the game class and starting the window from it</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1664,10 +1747,10 @@
         <v>Implementing a thread in the game and starting it from the thread run() method</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1684,10 +1767,10 @@
         <v>Creating the scope for the game loop in the run() method</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.3">
@@ -1704,10 +1787,10 @@
         <v>Testing closing the game by the close button</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1724,10 +1807,10 @@
         <v>Testing closing the game by the close button</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -1744,10 +1827,10 @@
         <v>Testing closing the game using a simple timer and stoping the thread</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1764,10 +1847,10 @@
         <v>Testing closing the game using a simple timer and stoping the thread</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1784,10 +1867,10 @@
         <v>Creating a stop method in the game class and using it to close the game</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -1804,10 +1887,10 @@
         <v>Draw a simple rectangle on the screen</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -1824,10 +1907,10 @@
         <v>Draw a simple rectangle on the screen</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1844,10 +1927,10 @@
         <v>Draw a simple rectangle on the screen</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1864,10 +1947,10 @@
         <v>Configuring the game loop to run at 60 frames per second</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1884,10 +1967,10 @@
         <v>Configuring the game loop to run at 60 frames per second</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1904,10 +1987,10 @@
         <v>Creating the tick and render methods in the game class</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -1924,10 +2007,10 @@
         <v>Implementing a bufferedStrategy to draw images on the screen, draw the images through the render method</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -1944,10 +2027,10 @@
         <v>Implementing a bufferedStrategy to draw images on the screen, draw the images through the render method</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -1964,10 +2047,10 @@
         <v>Implementing a bufferedStrategy to draw images on the screen, draw the images through the render method</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -1984,10 +2067,10 @@
         <v>Creating the KeyListener class, instatiating it on the game class and using it to print objects on the screen</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2004,10 +2087,10 @@
         <v>Creating the KeyListener class, instatiating it on the game class and using it to print objects on the screen</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2024,10 +2107,10 @@
         <v>Creating the KeyListener class, instatiating it on the game class and using it to print objects on the screen</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2044,10 +2127,10 @@
         <v>Creating the KeyListener class, instatiating it on the game class and using it to print objects on the screen</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2064,10 +2147,10 @@
         <v>Creating the MouseListener class, instatiating it on the game class and using it to printt objects on the screen</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2084,13 +2167,13 @@
         <v>Drawing the images through the render method and making them move on the screen upgranding the position through the tick method</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2104,10 +2187,10 @@
         <v>Creating a folder that will hold all the sprites of the game, configuring it as a library path</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2124,10 +2207,10 @@
         <v>Creating the ImageLoader class, loading the entire images and printing them on the screen through the game class render method</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2144,10 +2227,10 @@
         <v>Creating the ImageLoader class, loading the entire images and printing them on the screen through the game class render method</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2164,10 +2247,10 @@
         <v>Implementing an SpriteSheet class that will hold the methods to crop the spritesheet in the program</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2184,10 +2267,10 @@
         <v>Creating the Assets class with an init() method that will hold and initiate all the images on the game, calling it from the game class</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2204,13 +2287,13 @@
         <v>Creating the Assets class with an init() method that will hold and initiate all the images on the game, calling it from the game class</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2224,10 +2307,10 @@
         <v>Creating the Assets class with an init() method that will hold and initiate all the images on the game, calling it from the game class</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2244,10 +2327,10 @@
         <v>Using the Assets class to prin several image on the screen through the game class render method</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2264,13 +2347,13 @@
         <v>Create an abstract State class with the methods to work with them, using this methods to draw images on the screen</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2284,10 +2367,10 @@
         <v>Create a GameState class the extends the State class, instantiate it in the game class and defining it as the initial game state</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2304,10 +2387,10 @@
         <v>Making the tick and render methods in the game class call the tick and render method defined on the states objects</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2324,10 +2407,10 @@
         <v>Making the tick and render methods in the game class call the tick and render method defined on the states objects</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2344,10 +2427,10 @@
         <v>Drawing an image on the screen and making it move using the GameState class tick and render methods</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2363,45 +2446,51 @@
         <f>IF(B44="","",IF(B44="Error","-",VLOOKUP(B44,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
         <v>Creating the Entity class the will hold all the common information for the entities in the game</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E44" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B45" s="4">
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="C45" s="6" t="str">
         <f>IF(B45="","",IF(B45="Error","-",VLOOKUP(B45,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D45" s="4"/>
+        <v>Create the player class, instantiate it in the GameState class, print an image and make it move on the screen using its tick and render methods</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E45" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B46" s="4">
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="C46" s="6" t="str">
         <f>IF(B46="","",IF(B46="Error","-",VLOOKUP(B46,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D46" s="4"/>
+        <v>Create the player class, instantiate it in the GameState class, print an image and make it move on the screen using its tick and render methods</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E46" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2409,35 +2498,39 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B47" s="4">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="C47" s="6" t="str">
         <f>IF(B47="","",IF(B47="Error","-",VLOOKUP(B47,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D47" s="4"/>
+        <v>Configuring the player class to print the right image for it and using the keyboard to make it move on the screen</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E47" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B48" s="4">
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="C48" s="6" t="str">
         <f>IF(B48="","",IF(B48="Error","-",VLOOKUP(B48,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D48" s="4"/>
+        <v>Limiting te movement of the player object to the size of the screen</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E48" s="5" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2445,17 +2538,19 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B49" s="4">
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="C49" s="6" t="str">
         <f>IF(B49="","",IF(B49="Error","-",VLOOKUP(B49,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D49" s="4"/>
+        <v>Limiting te movement of the player object to the size of the screen</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E49" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2463,35 +2558,39 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B50" s="4">
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="C50" s="6" t="str">
         <f>IF(B50="","",IF(B50="Error","-",VLOOKUP(B50,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D50" s="4"/>
+        <v>Limiting te movement of the player object to the size of the screen</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E50" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B51" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="C51" s="6" t="str">
         <f>IF(B51="","",IF(B51="Error","-",VLOOKUP(B51,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D51" s="4"/>
+        <v>Making the player moving an amount of pixels only once when a key is pressed</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E51" s="5" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2499,35 +2598,39 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B52" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="C52" s="6" t="str">
         <f>IF(B52="","",IF(B52="Error","-",VLOOKUP(B52,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D52" s="4"/>
+        <v>Making the player moving an amount of pixels only once when a key is pressed</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E52" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B53" s="4">
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="C53" s="6" t="str">
         <f>IF(B53="","",IF(B53="Error","-",VLOOKUP(B53,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D53" s="4"/>
+        <v>Making the player execute this moving an amount of pixels action smothly</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E53" s="5" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2535,35 +2638,39 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B54" s="4">
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="C54" s="6" t="str">
         <f>IF(B54="","",IF(B54="Error","-",VLOOKUP(B54,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D54" s="4"/>
+        <v>Making the player execute this moving an amount of pixels action smothly</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E54" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B55" s="4">
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="C55" s="6" t="str">
         <f>IF(B55="","",IF(B55="Error","-",VLOOKUP(B55,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D55" s="4"/>
+        <v>Animating the player image so it is visible the direction where the frog is going to</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E55" s="5" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2571,17 +2678,19 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B56" s="4">
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="C56" s="6" t="str">
         <f>IF(B56="","",IF(B56="Error","-",VLOOKUP(B56,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D56" s="4"/>
+        <v>Animating the player image so it is visible the direction where the frog is going to</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E56" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2589,35 +2698,39 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B57" s="4">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="C57" s="6" t="str">
         <f>IF(B57="","",IF(B57="Error","-",VLOOKUP(B57,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D57" s="4"/>
+        <v>Animating the player image so it is visible the action of jumping performed by the frog</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E57" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B58" s="4">
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="C58" s="6" t="str">
         <f>IF(B58="","",IF(B58="Error","-",VLOOKUP(B58,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D58" s="4"/>
+        <v>Create the Car class, instantiate it in the GameState class, print an image and make it move on the screen using its tick and render methods</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E58" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2625,17 +2738,19 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B59" s="4">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="C59" s="6" t="str">
         <f>IF(B59="","",IF(B59="Error","-",VLOOKUP(B59,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D59" s="4"/>
+        <v>Configuring the Car class to print the right image for it</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E59" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2643,35 +2758,39 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B60" s="4">
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="C60" s="6" t="str">
         <f>IF(B60="","",IF(B60="Error","-",VLOOKUP(B60,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D60" s="4"/>
+        <v>Configuring the random Car color selection when a new Car object is created in the game</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E60" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B61" s="4">
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="C61" s="6" t="str">
         <f>IF(B61="","",IF(B61="Error","-",VLOOKUP(B61,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D61" s="4"/>
+        <v>Configuring the random Car color selection when a new Car object is created in the game</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E61" s="5" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2679,35 +2798,39 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B62" s="4">
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="C62" s="6" t="str">
         <f>IF(B62="","",IF(B62="Error","-",VLOOKUP(B62,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D62" s="4"/>
+        <v>Configuring the random Car color selection when a new Car object is created in the game</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E62" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B63" s="4">
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="C63" s="6" t="str">
         <f>IF(B63="","",IF(B63="Error","-",VLOOKUP(B63,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D63" s="4"/>
+        <v>Create the Truck class, instantiate it in the GameState class, print an image and make it move on the screen using its tick and render methods</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E63" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2715,17 +2838,19 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B64" s="4">
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="C64" s="6" t="str">
         <f>IF(B64="","",IF(B64="Error","-",VLOOKUP(B64,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D64" s="4"/>
+        <v>Configuring the Truck class to print the right image for it</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E64" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2733,35 +2858,39 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B65" s="4">
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="C65" s="6" t="str">
         <f>IF(B65="","",IF(B65="Error","-",VLOOKUP(B65,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D65" s="4"/>
+        <v>Configuring the random Truck color selection when a new Truck object is created in the game</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E65" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B66" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="C66" s="6" t="str">
         <f>IF(B66="","",IF(B66="Error","-",VLOOKUP(B66,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D66" s="4"/>
+        <v>Create the Bus class, instantiate it in the GameState class, print an image and make it move on the screen using its tick and render methods</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E66" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2769,17 +2898,19 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B67" s="4">
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="C67" s="6" t="str">
         <f>IF(B67="","",IF(B67="Error","-",VLOOKUP(B67,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D67" s="4"/>
+        <v>Configuring the Bus class to print the right image for it</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E67" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2787,35 +2918,39 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B68" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B68" s="4">
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="C68" s="6" t="str">
         <f>IF(B68="","",IF(B68="Error","-",VLOOKUP(B68,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D68" s="4"/>
+        <v>Configuring the random Bus color selection when a new Bus object is created in the game</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E68" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" ref="A69:A132" si="2">A68+1</f>
         <v>67</v>
       </c>
-      <c r="B69" s="4" t="str">
+      <c r="B69" s="4">
         <f t="shared" ref="B69:B132" si="3">IF(ISBLANK(D68),"",IF(D68="Check",B68+1,IF(D68="Fail",B68,"Error")))</f>
-        <v/>
+        <v>43</v>
       </c>
       <c r="C69" s="6" t="str">
         <f>IF(B69="","",IF(B69="Error","-",VLOOKUP(B69,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D69" s="4"/>
+        <v>Create the Taxi class, instantiate it in the GameState class, print an image and make it move on the screen using its tick and render methods</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E69" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2823,17 +2958,19 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B70" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B70" s="4">
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
       <c r="C70" s="6" t="str">
         <f>IF(B70="","",IF(B70="Error","-",VLOOKUP(B70,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D70" s="4"/>
+        <v>Configuring the Taxi class to print the right image for it</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E70" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2841,17 +2978,19 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B71" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B71" s="4">
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="C71" s="6" t="str">
         <f>IF(B71="","",IF(B71="Error","-",VLOOKUP(B71,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D71" s="4"/>
+        <v>Creating the Car, Bus, Truck and taxi classes in a random position on the screen</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E71" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2859,35 +2998,39 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B72" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B72" s="4">
+        <f t="shared" si="3"/>
+        <v>46</v>
       </c>
       <c r="C72" s="6" t="str">
         <f>IF(B72="","",IF(B72="Error","-",VLOOKUP(B72,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D72" s="4"/>
+        <v>Creating a Vehicles class with will hold linked lists necessary to generate several cars, trucks, buses and taxis</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E72" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B73" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B73" s="4">
+        <f t="shared" si="3"/>
+        <v>47</v>
       </c>
       <c r="C73" s="6" t="str">
         <f>IF(B73="","",IF(B73="Error","-",VLOOKUP(B73,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D73" s="4"/>
+        <v>Make the linked lists tick and render its objects</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E73" s="5" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2895,17 +3038,19 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B74" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B74" s="4">
+        <f t="shared" si="3"/>
+        <v>47</v>
       </c>
       <c r="C74" s="6" t="str">
         <f>IF(B74="","",IF(B74="Error","-",VLOOKUP(B74,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D74" s="4"/>
+        <v>Make the linked lists tick and render its objects</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E74" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2913,17 +3058,19 @@
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B75" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B75" s="4">
+        <f t="shared" si="3"/>
+        <v>48</v>
       </c>
       <c r="C75" s="6" t="str">
         <f>IF(B75="","",IF(B75="Error","-",VLOOKUP(B75,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D75" s="4"/>
+        <v>Deleting the Car, Truck, Taxi and Bus object from the GameState class and create a new Vehicles object there</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E75" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2931,17 +3078,19 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B76" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B76" s="4">
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="C76" s="6" t="str">
         <f>IF(B76="","",IF(B76="Error","-",VLOOKUP(B76,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D76" s="4"/>
+        <v>Using the Vehicles objects to add vehicles on the screen</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E76" s="5" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2949,17 +3098,19 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B77" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B77" s="4">
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="C77" s="6" t="str">
         <f>IF(B77="","",IF(B77="Error","-",VLOOKUP(B77,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D77" s="4"/>
+        <v>Using the Vehicles objects to add vehicles on the screen</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E77" s="5" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2967,17 +3118,19 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B78" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B78" s="4">
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="C78" s="6" t="str">
         <f>IF(B78="","",IF(B78="Error","-",VLOOKUP(B78,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D78" s="4"/>
+        <v>Using the Vehicles objects to add vehicles on the screen</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E78" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -2985,35 +3138,39 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B79" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B79" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="C79" s="6" t="str">
         <f>IF(B79="","",IF(B79="Error","-",VLOOKUP(B79,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D79" s="4"/>
+        <v>Defining five imaginary lines on the road on the background image</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E79" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B80" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B80" s="4">
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="C80" s="6" t="str">
         <f>IF(B80="","",IF(B80="Error","-",VLOOKUP(B80,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D80" s="4"/>
+        <v>Making the vehicles objects show up on one of this five lines</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E80" s="5" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3021,35 +3178,39 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B81" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B81" s="4">
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="C81" s="6" t="str">
         <f>IF(B81="","",IF(B81="Error","-",VLOOKUP(B81,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D81" s="4"/>
+        <v>Making the vehicles objects show up on one of this five lines</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E81" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B82" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B82" s="4">
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="C82" s="6" t="str">
         <f>IF(B82="","",IF(B82="Error","-",VLOOKUP(B82,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D82" s="4"/>
+        <v>Making the GameClass generate a new vehicle class in a different line</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E82" s="5" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3057,17 +3218,19 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B83" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B83" s="4">
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="C83" s="6" t="str">
         <f>IF(B83="","",IF(B83="Error","-",VLOOKUP(B83,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D83" s="4"/>
+        <v>Making the GameClass generate a new vehicle class in a different line</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E83" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3075,35 +3238,39 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B84" s="4">
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="C84" s="6" t="str">
         <f>IF(B84="","",IF(B84="Error","-",VLOOKUP(B84,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D84" s="4"/>
+        <v>Randomly generating vehicles</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E84" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="B85" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B85" s="4">
+        <f t="shared" si="3"/>
+        <v>54</v>
       </c>
       <c r="C85" s="6" t="str">
         <f>IF(B85="","",IF(B85="Error","-",VLOOKUP(B85,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D85" s="4"/>
+        <v>Making the vehicles move to different direction according to its y position</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E85" s="5" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3111,35 +3278,39 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B86" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B86" s="4">
+        <f t="shared" si="3"/>
+        <v>54</v>
       </c>
       <c r="C86" s="6" t="str">
         <f>IF(B86="","",IF(B86="Error","-",VLOOKUP(B86,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D86" s="4"/>
+        <v>Making the vehicles move to different direction according to its y position</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E86" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B87" s="4">
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="C87" s="6" t="str">
         <f>IF(B87="","",IF(B87="Error","-",VLOOKUP(B87,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D87" s="4"/>
+        <v>Create the Log class, instantiate it in the GameState class, print an image and make it move on the screen using its tick and render methods</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E87" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3147,17 +3318,19 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B88" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B88" s="4">
+        <f t="shared" si="3"/>
+        <v>56</v>
       </c>
       <c r="C88" s="6" t="str">
         <f>IF(B88="","",IF(B88="Error","-",VLOOKUP(B88,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D88" s="4"/>
+        <v>Configuring the Log class to print the right image for it</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E88" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3165,35 +3338,39 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B89" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B89" s="4">
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
       <c r="C89" s="6" t="str">
         <f>IF(B89="","",IF(B89="Error","-",VLOOKUP(B89,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D89" s="4"/>
+        <v>Implementing the random width of the Log class every time a new Log object is created</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E89" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B90" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B90" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
       </c>
       <c r="C90" s="6" t="str">
         <f>IF(B90="","",IF(B90="Error","-",VLOOKUP(B90,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D90" s="4"/>
+        <v>Create the Alligator class, instantiate it in the GameState class, print an image and make it move on the screen using its tick and render methods</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E90" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3201,35 +3378,39 @@
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B91" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B91" s="4">
+        <f t="shared" si="3"/>
+        <v>59</v>
       </c>
       <c r="C91" s="6" t="str">
         <f>IF(B91="","",IF(B91="Error","-",VLOOKUP(B91,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D91" s="4"/>
+        <v>Configuring the Alligator class to print the right image for it</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E91" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B92" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B92" s="4">
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="C92" s="6" t="str">
         <f>IF(B92="","",IF(B92="Error","-",VLOOKUP(B92,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D92" s="4"/>
+        <v>Animating the alligator class it is visible its mouth opening and closing</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E92" s="5" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3237,35 +3418,39 @@
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B93" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B93" s="4">
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="C93" s="6" t="str">
         <f>IF(B93="","",IF(B93="Error","-",VLOOKUP(B93,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D93" s="4"/>
+        <v>Animating the alligator class it is visible its mouth opening and closing</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E93" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B94" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B94" s="4">
+        <f t="shared" si="3"/>
+        <v>61</v>
       </c>
       <c r="C94" s="6" t="str">
         <f>IF(B94="","",IF(B94="Error","-",VLOOKUP(B94,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D94" s="4"/>
+        <v>Create the AlligatorBank class, instantiate it in the GameState class, print an image and make it move on the screen using its tick and render methods</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E94" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3273,17 +3458,19 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B95" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B95" s="4">
+        <f t="shared" si="3"/>
+        <v>62</v>
       </c>
       <c r="C95" s="6" t="str">
         <f>IF(B95="","",IF(B95="Error","-",VLOOKUP(B95,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D95" s="4"/>
+        <v>Configuring the AlligatorBank class to print the right image for it</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E95" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3291,17 +3478,19 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B96" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B96" s="4">
+        <f t="shared" si="3"/>
+        <v>63</v>
       </c>
       <c r="C96" s="6" t="str">
         <f>IF(B96="","",IF(B96="Error","-",VLOOKUP(B96,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D96" s="4"/>
+        <v>Animating the alligatorBank class so it changes its position randomly between the riverbanks on the background image</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E96" s="5" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3309,17 +3498,19 @@
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B97" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B97" s="4">
+        <f t="shared" si="3"/>
+        <v>63</v>
       </c>
       <c r="C97" s="6" t="str">
         <f>IF(B97="","",IF(B97="Error","-",VLOOKUP(B97,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D97" s="4"/>
+        <v>Animating the alligatorBank class so it changes its position randomly between the riverbanks on the background image</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E97" s="5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3327,35 +3518,39 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B98" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B98" s="4">
+        <f t="shared" si="3"/>
+        <v>63</v>
       </c>
       <c r="C98" s="6" t="str">
         <f>IF(B98="","",IF(B98="Error","-",VLOOKUP(B98,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D98" s="4"/>
+        <v>Animating the alligatorBank class so it changes its position randomly between the riverbanks on the background image</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E98" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B99" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B99" s="4">
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="C99" s="6" t="str">
         <f>IF(B99="","",IF(B99="Error","-",VLOOKUP(B99,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D99" s="4"/>
+        <v>Create the Turtle class, instantiate it in the GameState class, print an image and make it move on the screen using its tick and render methods</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E99" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3363,17 +3558,19 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B100" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B100" s="4">
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="C100" s="6" t="str">
         <f>IF(B100="","",IF(B100="Error","-",VLOOKUP(B100,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D100" s="4"/>
+        <v>Configuring the Turtle class to print the right image for it</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E100" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3381,17 +3578,19 @@
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B101" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B101" s="4">
+        <f t="shared" si="3"/>
+        <v>66</v>
       </c>
       <c r="C101" s="6" t="str">
         <f>IF(B101="","",IF(B101="Error","-",VLOOKUP(B101,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D101" s="4"/>
+        <v>Animating the Turtle class so it looks like they are swimming</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E101" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3399,17 +3598,19 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B102" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B102" s="4">
+        <f t="shared" si="3"/>
+        <v>67</v>
       </c>
       <c r="C102" s="6" t="str">
         <f>IF(B102="","",IF(B102="Error","-",VLOOKUP(B102,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D102" s="4"/>
+        <v>Implementing a random amount of turtles to be drawn on the screen, getting this number randomly</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E102" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3417,35 +3618,39 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B103" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B103" s="4">
+        <f t="shared" si="3"/>
+        <v>68</v>
       </c>
       <c r="C103" s="6" t="str">
         <f>IF(B103="","",IF(B103="Error","-",VLOOKUP(B103,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D103" s="4"/>
+        <v>Creating the Alligator, AlligatorBank, Log and Turtle classes in a random position on the screen</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E103" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B104" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B104" s="4">
+        <f t="shared" si="3"/>
+        <v>69</v>
       </c>
       <c r="C104" s="6" t="str">
         <f>IF(B104="","",IF(B104="Error","-",VLOOKUP(B104,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D104" s="4"/>
+        <v>Creating a RiverItems class with will hold linked lists necessary to generate several logs,alligators,alligatorBanks and turtles</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E104" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3453,35 +3658,39 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B105" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B105" s="4">
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="C105" s="6" t="str">
         <f>IF(B105="","",IF(B105="Error","-",VLOOKUP(B105,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D105" s="4"/>
+        <v>Make the linked lists tick and render its objects</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E105" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="B106" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B106" s="4">
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="C106" s="6" t="str">
         <f>IF(B106="","",IF(B106="Error","-",VLOOKUP(B106,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D106" s="4"/>
+        <v>Deleting the Log, Alligator, AlligatorBank and Turtle objects from the GameState class and create a new RiverItems object there</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E106" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3489,17 +3698,19 @@
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B107" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B107" s="4">
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="C107" s="6" t="str">
         <f>IF(B107="","",IF(B107="Error","-",VLOOKUP(B107,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D107" s="4"/>
+        <v>Using the RiverItems objects to add the same objects on the screen</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E107" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3507,17 +3718,19 @@
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B108" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B108" s="4">
+        <f t="shared" si="3"/>
+        <v>73</v>
       </c>
       <c r="C108" s="6" t="str">
         <f>IF(B108="","",IF(B108="Error","-",VLOOKUP(B108,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D108" s="4"/>
+        <v>Defining five imaginary lines in the river on the background image</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E108" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3525,17 +3738,19 @@
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B109" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B109" s="4">
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="C109" s="6" t="str">
         <f>IF(B109="","",IF(B109="Error","-",VLOOKUP(B109,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D109" s="4"/>
+        <v>Making the riverItems objects show up on one of this five lines</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E109" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3543,17 +3758,19 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B110" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B110" s="4">
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
       <c r="C110" s="6" t="str">
         <f>IF(B110="","",IF(B110="Error","-",VLOOKUP(B110,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D110" s="4"/>
+        <v>Making the GameClass generate a new river item class in a different line</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E110" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3561,17 +3778,19 @@
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B111" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B111" s="4">
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
       <c r="C111" s="6" t="str">
         <f>IF(B111="","",IF(B111="Error","-",VLOOKUP(B111,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D111" s="4"/>
+        <v>Randomly generating river items</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E111" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3579,71 +3798,79 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="B112" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B112" s="4">
+        <f t="shared" si="3"/>
+        <v>77</v>
       </c>
       <c r="C112" s="6" t="str">
         <f>IF(B112="","",IF(B112="Error","-",VLOOKUP(B112,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D112" s="4"/>
+        <v>Making the river items move to different direction according to its y position</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E112" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="B113" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B113" s="4">
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="C113" s="6" t="str">
         <f>IF(B113="","",IF(B113="Error","-",VLOOKUP(B113,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D113" s="4"/>
+        <v>Configuring the RiverItems and Vehicles objects to test if its added objects are completely out of the screen on its tick methods</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E113" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="B114" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B114" s="4">
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="C114" s="6" t="str">
         <f>IF(B114="","",IF(B114="Error","-",VLOOKUP(B114,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D114" s="4"/>
+        <v>Configuring the RiverItems and Vehicles objects to test if its added objects are completely out of the screen on its tick methods</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E114" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="B115" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B115" s="4">
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="C115" s="6" t="str">
         <f>IF(B115="","",IF(B115="Error","-",VLOOKUP(B115,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D115" s="4"/>
+        <v>Configuring the RiverItems and Vehicles objects to test if its added objects are completely out of the screen on its tick methods</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E115" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3651,17 +3878,19 @@
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="B116" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B116" s="4">
+        <f t="shared" si="3"/>
+        <v>79</v>
       </c>
       <c r="C116" s="6" t="str">
         <f>IF(B116="","",IF(B116="Error","-",VLOOKUP(B116,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="D116" s="4"/>
+        <v>Removing the object from the list they are already out of the game screen</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E116" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3669,17 +3898,17 @@
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B117" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C117" s="6" t="str">
+      <c r="B117" s="4">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="C117" s="6" t="e">
         <f>IF(B117="","",IF(B117="Error","-",VLOOKUP(B117,'Iteratives Development Steps'!$A$3:$B$200,2,FALSE)))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3697,7 +3926,7 @@
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3715,7 +3944,7 @@
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3733,7 +3962,7 @@
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3751,7 +3980,7 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3769,7 +3998,7 @@
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3787,7 +4016,7 @@
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3805,7 +4034,7 @@
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3823,7 +4052,7 @@
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3841,7 +4070,7 @@
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3859,7 +4088,7 @@
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3877,7 +4106,7 @@
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3895,7 +4124,7 @@
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3913,7 +4142,7 @@
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3931,7 +4160,7 @@
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3949,7 +4178,7 @@
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3967,7 +4196,7 @@
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -3985,7 +4214,7 @@
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4003,7 +4232,7 @@
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4021,7 +4250,7 @@
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4039,7 +4268,7 @@
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4057,7 +4286,7 @@
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4075,7 +4304,7 @@
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4093,7 +4322,7 @@
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4111,7 +4340,7 @@
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4129,7 +4358,7 @@
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4147,7 +4376,7 @@
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4165,7 +4394,7 @@
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4183,7 +4412,7 @@
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4201,7 +4430,7 @@
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4219,7 +4448,7 @@
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4237,7 +4466,7 @@
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4255,7 +4484,7 @@
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4273,7 +4502,7 @@
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4291,7 +4520,7 @@
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -4309,7 +4538,7 @@
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Frogger/Testing report.xlsx
+++ b/Frogger/Testing report.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20088" windowHeight="4668" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Iteratives Development Steps" sheetId="1" r:id="rId1"/>
     <sheet name="Testing Report" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A106:D115"/>
 </workbook>
 </file>
 
@@ -498,36 +499,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -829,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -1576,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Frogger/Testing report.xlsx
+++ b/Frogger/Testing report.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20088" windowHeight="4668" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20088" windowHeight="5832" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Iteratives Development Steps" sheetId="1" r:id="rId1"/>
     <sheet name="Testing Report" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A106:D115"/>
+  <oleSize ref="A1:D14"/>
 </workbook>
 </file>
 
@@ -801,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -1548,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
